--- a/data/pca/factorExposure/factorExposure_2015-06-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-06-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0192611122992088</v>
+        <v>0.007745530486416285</v>
       </c>
       <c r="C2">
-        <v>-0.01820016676000843</v>
+        <v>0.04874543587916715</v>
       </c>
       <c r="D2">
-        <v>0.1073992325922436</v>
+        <v>0.1322089596207232</v>
       </c>
       <c r="E2">
-        <v>-0.009133063907500469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02771059312179551</v>
+      </c>
+      <c r="F2">
+        <v>0.03291846953644667</v>
+      </c>
+      <c r="G2">
+        <v>-0.1283881815614508</v>
+      </c>
+      <c r="H2">
+        <v>-0.03622031233525715</v>
+      </c>
+      <c r="I2">
+        <v>-0.05123454564024237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.005279588864538552</v>
+        <v>-0.004152461364002729</v>
       </c>
       <c r="C3">
-        <v>-0.00379281741562723</v>
+        <v>-0.0003706416661831079</v>
       </c>
       <c r="D3">
-        <v>-0.003384933459605393</v>
+        <v>0.002001877516827608</v>
       </c>
       <c r="E3">
-        <v>0.0004450221905945082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.005468901307922444</v>
+      </c>
+      <c r="F3">
+        <v>-0.002252668355179544</v>
+      </c>
+      <c r="G3">
+        <v>5.083748479206611e-05</v>
+      </c>
+      <c r="H3">
+        <v>0.01274903318645001</v>
+      </c>
+      <c r="I3">
+        <v>0.01245314100643666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04543099306055766</v>
+        <v>0.01675481212487214</v>
       </c>
       <c r="C4">
-        <v>-0.07035653719702752</v>
+        <v>0.1023888974811631</v>
       </c>
       <c r="D4">
-        <v>0.1334651295653751</v>
+        <v>0.136823208137573</v>
       </c>
       <c r="E4">
-        <v>-0.08172043577958826</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.0133199811590904</v>
+      </c>
+      <c r="F4">
+        <v>0.09287200404445803</v>
+      </c>
+      <c r="G4">
+        <v>-0.009238531708999574</v>
+      </c>
+      <c r="H4">
+        <v>-0.05091006109332213</v>
+      </c>
+      <c r="I4">
+        <v>0.06865074866460229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02255407587721286</v>
+        <v>0.02478994946186924</v>
       </c>
       <c r="C6">
-        <v>-0.0127350639352912</v>
+        <v>0.03283793635804155</v>
       </c>
       <c r="D6">
-        <v>0.1379153655496632</v>
+        <v>0.1218689307666684</v>
       </c>
       <c r="E6">
-        <v>-0.03472807391709944</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.06258979546998779</v>
+      </c>
+      <c r="F6">
+        <v>0.04586575415468255</v>
+      </c>
+      <c r="G6">
+        <v>-0.006368580456127397</v>
+      </c>
+      <c r="H6">
+        <v>-0.0535825234872798</v>
+      </c>
+      <c r="I6">
+        <v>0.01195927520104412</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.004773752710323426</v>
+        <v>0.007410974342529266</v>
       </c>
       <c r="C7">
-        <v>-0.02223429065815407</v>
+        <v>0.03289678054135187</v>
       </c>
       <c r="D7">
-        <v>0.1118387921697007</v>
+        <v>0.09490476260559112</v>
       </c>
       <c r="E7">
-        <v>-0.00190784962391259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.05995015953416243</v>
+      </c>
+      <c r="F7">
+        <v>0.00813135479423489</v>
+      </c>
+      <c r="G7">
+        <v>-0.004430170754060853</v>
+      </c>
+      <c r="H7">
+        <v>-0.07509975414980022</v>
+      </c>
+      <c r="I7">
+        <v>-0.004251431108601018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.004148923516182357</v>
+        <v>-0.01174332811372768</v>
       </c>
       <c r="C8">
-        <v>-0.02503939956394406</v>
+        <v>0.03111582527796267</v>
       </c>
       <c r="D8">
-        <v>0.08088106502554042</v>
+        <v>0.07508350403115188</v>
       </c>
       <c r="E8">
-        <v>-0.02564047840500584</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.0396195283866303</v>
+      </c>
+      <c r="F8">
+        <v>0.05259553296602579</v>
+      </c>
+      <c r="G8">
+        <v>-0.06032424990292164</v>
+      </c>
+      <c r="H8">
+        <v>0.0007061125778218337</v>
+      </c>
+      <c r="I8">
+        <v>-0.01696357917354454</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03802747509663817</v>
+        <v>0.01176340107671191</v>
       </c>
       <c r="C9">
-        <v>-0.06007369926876252</v>
+        <v>0.08526907536542298</v>
       </c>
       <c r="D9">
-        <v>0.1324135768210897</v>
+        <v>0.1181573791722809</v>
       </c>
       <c r="E9">
-        <v>-0.06486846517726522</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01592954206269469</v>
+      </c>
+      <c r="F9">
+        <v>0.06101004672019907</v>
+      </c>
+      <c r="G9">
+        <v>0.005749878127891373</v>
+      </c>
+      <c r="H9">
+        <v>-0.06758550101214923</v>
+      </c>
+      <c r="I9">
+        <v>0.03148512657177699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1617303536555504</v>
+        <v>0.2368089903019282</v>
       </c>
       <c r="C10">
-        <v>0.177222298787137</v>
+        <v>-0.09368259993761574</v>
       </c>
       <c r="D10">
-        <v>0.008737442875614008</v>
+        <v>-0.00135805384155873</v>
       </c>
       <c r="E10">
-        <v>-0.0475552803801703</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0133258322029244</v>
+      </c>
+      <c r="F10">
+        <v>0.04636540977874914</v>
+      </c>
+      <c r="G10">
+        <v>0.0001612752450524725</v>
+      </c>
+      <c r="H10">
+        <v>0.05321550713790502</v>
+      </c>
+      <c r="I10">
+        <v>-0.07631941616565989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02043857353712948</v>
+        <v>0.007709360803252627</v>
       </c>
       <c r="C11">
-        <v>-0.03945263357248468</v>
+        <v>0.05218538492335669</v>
       </c>
       <c r="D11">
-        <v>0.0497940835743838</v>
+        <v>0.04197319424335785</v>
       </c>
       <c r="E11">
-        <v>0.01613689634861701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.02242483515153134</v>
+      </c>
+      <c r="F11">
+        <v>-0.01321711579101354</v>
+      </c>
+      <c r="G11">
+        <v>-0.001391202029878874</v>
+      </c>
+      <c r="H11">
+        <v>-0.04609399207178391</v>
+      </c>
+      <c r="I11">
+        <v>0.05773730023666025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02156882200343836</v>
+        <v>0.008778550646581399</v>
       </c>
       <c r="C12">
-        <v>-0.03942542936270884</v>
+        <v>0.04846286450351212</v>
       </c>
       <c r="D12">
-        <v>0.06243813155298426</v>
+        <v>0.04787227011088451</v>
       </c>
       <c r="E12">
-        <v>0.006134761136820327</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.01859576890065239</v>
+      </c>
+      <c r="F12">
+        <v>-0.01619411719386436</v>
+      </c>
+      <c r="G12">
+        <v>0.01257733599567651</v>
+      </c>
+      <c r="H12">
+        <v>-0.07304919193362065</v>
+      </c>
+      <c r="I12">
+        <v>0.0300282944160096</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.004147250287975504</v>
+        <v>-0.006216244848838159</v>
       </c>
       <c r="C13">
-        <v>-0.02419906949288416</v>
+        <v>0.04327177853746583</v>
       </c>
       <c r="D13">
-        <v>0.1481083203186287</v>
+        <v>0.147034526895769</v>
       </c>
       <c r="E13">
-        <v>-0.03255957732563046</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.04476618864375152</v>
+      </c>
+      <c r="F13">
+        <v>0.03237258070677047</v>
+      </c>
+      <c r="G13">
+        <v>-0.03044348774250723</v>
+      </c>
+      <c r="H13">
+        <v>-0.06133870194582015</v>
+      </c>
+      <c r="I13">
+        <v>-0.09768671293202547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003963979903037876</v>
+        <v>-0.001128406633715329</v>
       </c>
       <c r="C14">
-        <v>-0.01758572520817269</v>
+        <v>0.02678767103956364</v>
       </c>
       <c r="D14">
-        <v>0.1001629472362113</v>
+        <v>0.09882853606577276</v>
       </c>
       <c r="E14">
-        <v>-0.009116747790073924</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.05124121193196149</v>
+      </c>
+      <c r="F14">
+        <v>0.03503524519216253</v>
+      </c>
+      <c r="G14">
+        <v>-0.03799531568391586</v>
+      </c>
+      <c r="H14">
+        <v>-0.1218235536610771</v>
+      </c>
+      <c r="I14">
+        <v>-0.007605824215333405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.001409994105975713</v>
+        <v>-0.002267031946334401</v>
       </c>
       <c r="C15">
-        <v>-0.009753519490258862</v>
+        <v>0.0216538521879835</v>
       </c>
       <c r="D15">
-        <v>0.02827763385809109</v>
+        <v>0.05689611293928316</v>
       </c>
       <c r="E15">
-        <v>0.003162311103875529</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.01190512500252559</v>
+      </c>
+      <c r="F15">
+        <v>0.006176964397121799</v>
+      </c>
+      <c r="G15">
+        <v>-0.02345575278979646</v>
+      </c>
+      <c r="H15">
+        <v>-0.02601750428235482</v>
+      </c>
+      <c r="I15">
+        <v>0.02397488349022329</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02086819168255299</v>
+        <v>0.008668322765292415</v>
       </c>
       <c r="C16">
-        <v>-0.03718242788876372</v>
+        <v>0.0483965015378227</v>
       </c>
       <c r="D16">
-        <v>0.05593106185961099</v>
+        <v>0.04355917547161377</v>
       </c>
       <c r="E16">
-        <v>0.009219512453034212</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.02419413068899492</v>
+      </c>
+      <c r="F16">
+        <v>-0.01013997872632161</v>
+      </c>
+      <c r="G16">
+        <v>0.01009743606627327</v>
+      </c>
+      <c r="H16">
+        <v>-0.0530760680405833</v>
+      </c>
+      <c r="I16">
+        <v>0.05232168897800916</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.00546689056964029</v>
+        <v>-0.0001488117797923552</v>
       </c>
       <c r="C19">
-        <v>-0.01989561804276906</v>
+        <v>0.01861408301374333</v>
       </c>
       <c r="D19">
-        <v>0.1050360543165169</v>
+        <v>0.06691122837263797</v>
       </c>
       <c r="E19">
-        <v>-0.04182633639485303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.008573857358599673</v>
+      </c>
+      <c r="F19">
+        <v>0.015237899569489</v>
+      </c>
+      <c r="G19">
+        <v>-0.02359401935252498</v>
+      </c>
+      <c r="H19">
+        <v>-0.06056871542764126</v>
+      </c>
+      <c r="I19">
+        <v>-0.04518906823469689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.003816218879692812</v>
+        <v>0.003291128531957324</v>
       </c>
       <c r="C20">
-        <v>-0.02426386737243006</v>
+        <v>0.03736998933059397</v>
       </c>
       <c r="D20">
-        <v>0.088657779950728</v>
+        <v>0.09242631396957264</v>
       </c>
       <c r="E20">
-        <v>-0.034367054833019</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02493585991964914</v>
+      </c>
+      <c r="F20">
+        <v>0.02959578865333476</v>
+      </c>
+      <c r="G20">
+        <v>-0.005593503829632235</v>
+      </c>
+      <c r="H20">
+        <v>-0.05813921869411433</v>
+      </c>
+      <c r="I20">
+        <v>0.03124301359436926</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007627572438653126</v>
+        <v>0.001955192081235361</v>
       </c>
       <c r="C21">
-        <v>-0.02965400987200882</v>
+        <v>0.0404221757036073</v>
       </c>
       <c r="D21">
-        <v>0.1670246755839463</v>
+        <v>0.1271386445474911</v>
       </c>
       <c r="E21">
-        <v>-0.0699582377533698</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.03576054534731583</v>
+      </c>
+      <c r="F21">
+        <v>0.09363748701763204</v>
+      </c>
+      <c r="G21">
+        <v>-0.05312058736858781</v>
+      </c>
+      <c r="H21">
+        <v>-0.1868909404696625</v>
+      </c>
+      <c r="I21">
+        <v>-0.1567479809575397</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.000154945235446155</v>
+        <v>-0.01328152478982246</v>
       </c>
       <c r="C22">
-        <v>-0.06159361284868362</v>
+        <v>0.08245557027726987</v>
       </c>
       <c r="D22">
-        <v>0.2382975811253887</v>
+        <v>0.2655701178669512</v>
       </c>
       <c r="E22">
-        <v>0.02065070862775754</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0630582916052241</v>
+      </c>
+      <c r="F22">
+        <v>0.02836690673843851</v>
+      </c>
+      <c r="G22">
+        <v>-0.2709756758310421</v>
+      </c>
+      <c r="H22">
+        <v>0.4525875436081452</v>
+      </c>
+      <c r="I22">
+        <v>0.1107529348696439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.0004135038668564985</v>
+        <v>-0.01292092511949253</v>
       </c>
       <c r="C23">
-        <v>-0.06208314149753938</v>
+        <v>0.08349497325368253</v>
       </c>
       <c r="D23">
-        <v>0.2378763486442989</v>
+        <v>0.2664548735596224</v>
       </c>
       <c r="E23">
-        <v>0.02050119310658342</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.05997002821112611</v>
+      </c>
+      <c r="F23">
+        <v>0.02848519703564911</v>
+      </c>
+      <c r="G23">
+        <v>-0.2708660684015676</v>
+      </c>
+      <c r="H23">
+        <v>0.4522237973206031</v>
+      </c>
+      <c r="I23">
+        <v>0.1110663977589504</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02686413964292033</v>
+        <v>0.008153684981087586</v>
       </c>
       <c r="C24">
-        <v>-0.05585936068278868</v>
+        <v>0.06508044529255314</v>
       </c>
       <c r="D24">
-        <v>0.06866361740922</v>
+        <v>0.0506448902967221</v>
       </c>
       <c r="E24">
-        <v>0.004843165883571799</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.03255786371533467</v>
+      </c>
+      <c r="F24">
+        <v>-0.005650673347862723</v>
+      </c>
+      <c r="G24">
+        <v>-0.003212948677799847</v>
+      </c>
+      <c r="H24">
+        <v>-0.07623545433651786</v>
+      </c>
+      <c r="I24">
+        <v>0.04697524166006295</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0279204171036669</v>
+        <v>0.01163892977995942</v>
       </c>
       <c r="C25">
-        <v>-0.04713506096490838</v>
+        <v>0.05942745276239666</v>
       </c>
       <c r="D25">
-        <v>0.06043363518576456</v>
+        <v>0.04826780730380426</v>
       </c>
       <c r="E25">
-        <v>0.001112722858068733</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.016450650360733</v>
+      </c>
+      <c r="F25">
+        <v>-0.007227313072164203</v>
+      </c>
+      <c r="G25">
+        <v>0.005751478797060788</v>
+      </c>
+      <c r="H25">
+        <v>-0.0432516759872878</v>
+      </c>
+      <c r="I25">
+        <v>0.03450008704607638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.008033266378417569</v>
+        <v>0.01014180622479513</v>
       </c>
       <c r="C26">
-        <v>-0.01407243572476825</v>
+        <v>0.02232871476539555</v>
       </c>
       <c r="D26">
-        <v>0.08037941381401281</v>
+        <v>0.06143037564525883</v>
       </c>
       <c r="E26">
-        <v>-0.01927367434374995</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.04286226180252506</v>
+      </c>
+      <c r="F26">
+        <v>0.04063949380485732</v>
+      </c>
+      <c r="G26">
+        <v>-0.02127274845917083</v>
+      </c>
+      <c r="H26">
+        <v>-0.09144989591117425</v>
+      </c>
+      <c r="I26">
+        <v>-0.04684454567507249</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2459522410172337</v>
+        <v>0.3209389317008409</v>
       </c>
       <c r="C28">
-        <v>0.2133280232292816</v>
+        <v>-0.09200003159239466</v>
       </c>
       <c r="D28">
-        <v>0.01671061147639424</v>
+        <v>-0.005118417521657717</v>
       </c>
       <c r="E28">
-        <v>-0.06547959136802153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.04835215372506581</v>
+      </c>
+      <c r="F28">
+        <v>0.04890652574428082</v>
+      </c>
+      <c r="G28">
+        <v>-0.03822668509593868</v>
+      </c>
+      <c r="H28">
+        <v>0.01388891339327642</v>
+      </c>
+      <c r="I28">
+        <v>-0.117574520612878</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-2.109039222418858e-05</v>
+        <v>-0.003252319294902523</v>
       </c>
       <c r="C29">
-        <v>-0.02092037927987358</v>
+        <v>0.02998787898205934</v>
       </c>
       <c r="D29">
-        <v>0.09765474593405619</v>
+        <v>0.0947222081806238</v>
       </c>
       <c r="E29">
-        <v>-0.01388717339977633</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.05651632389469054</v>
+      </c>
+      <c r="F29">
+        <v>0.03734308484419654</v>
+      </c>
+      <c r="G29">
+        <v>-0.02476599271726527</v>
+      </c>
+      <c r="H29">
+        <v>-0.1263957446672374</v>
+      </c>
+      <c r="I29">
+        <v>-0.000466644787812675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02472552808475966</v>
+        <v>0.0128921442404553</v>
       </c>
       <c r="C30">
-        <v>-0.05711874104553624</v>
+        <v>0.08410332620765162</v>
       </c>
       <c r="D30">
-        <v>0.1666722014916504</v>
+        <v>0.1555399099022122</v>
       </c>
       <c r="E30">
-        <v>-0.02308841445553141</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.06181502787990602</v>
+      </c>
+      <c r="F30">
+        <v>0.03683108987402307</v>
+      </c>
+      <c r="G30">
+        <v>-0.03585908712883516</v>
+      </c>
+      <c r="H30">
+        <v>-0.05411237523730001</v>
+      </c>
+      <c r="I30">
+        <v>0.07589545458495699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04294959430971714</v>
+        <v>0.007902678748845718</v>
       </c>
       <c r="C31">
-        <v>-0.08375403622965197</v>
+        <v>0.09206669136524873</v>
       </c>
       <c r="D31">
-        <v>0.06906308391754493</v>
+        <v>0.03791703847969754</v>
       </c>
       <c r="E31">
-        <v>-0.01229541650101838</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01965612745415296</v>
+      </c>
+      <c r="F31">
+        <v>0.01748803829799363</v>
+      </c>
+      <c r="G31">
+        <v>-0.01596086350914649</v>
+      </c>
+      <c r="H31">
+        <v>-0.04608893122595649</v>
+      </c>
+      <c r="I31">
+        <v>-0.04587604773571836</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.0207293264757989</v>
+        <v>0.01144993866379327</v>
       </c>
       <c r="C32">
-        <v>-0.03173937891828526</v>
+        <v>0.0463857912256983</v>
       </c>
       <c r="D32">
-        <v>0.1035763254833211</v>
+        <v>0.1111354865376072</v>
       </c>
       <c r="E32">
-        <v>-0.06667879049161937</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01220189708942523</v>
+      </c>
+      <c r="F32">
+        <v>0.05341647797759127</v>
+      </c>
+      <c r="G32">
+        <v>-0.02605842785474481</v>
+      </c>
+      <c r="H32">
+        <v>-0.04167252780507532</v>
+      </c>
+      <c r="I32">
+        <v>-0.08090295518756205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.0127660955954917</v>
+        <v>0.004895454111259826</v>
       </c>
       <c r="C33">
-        <v>-0.04087959835614415</v>
+        <v>0.05685815258242773</v>
       </c>
       <c r="D33">
-        <v>0.1389114408987987</v>
+        <v>0.1211186582129724</v>
       </c>
       <c r="E33">
-        <v>-0.03804540956542228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03344764560596412</v>
+      </c>
+      <c r="F33">
+        <v>0.02724543583663447</v>
+      </c>
+      <c r="G33">
+        <v>-0.01205044151927638</v>
+      </c>
+      <c r="H33">
+        <v>-0.06446838468632488</v>
+      </c>
+      <c r="I33">
+        <v>-0.00266910327213613</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02415100505786727</v>
+        <v>0.005419991701486563</v>
       </c>
       <c r="C34">
-        <v>-0.05806365142910948</v>
+        <v>0.0614947422138211</v>
       </c>
       <c r="D34">
-        <v>0.05170874160911529</v>
+        <v>0.02954790981164716</v>
       </c>
       <c r="E34">
-        <v>0.04690163593631176</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.030232064719925</v>
+      </c>
+      <c r="F34">
+        <v>-0.03820826595694779</v>
+      </c>
+      <c r="G34">
+        <v>-0.000939708205435255</v>
+      </c>
+      <c r="H34">
+        <v>-0.05997503691319193</v>
+      </c>
+      <c r="I34">
+        <v>0.02253196540554116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001201939282793749</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.007788194478839279</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>0.02901348122600097</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.004678753373089439</v>
+      </c>
+      <c r="F35">
+        <v>0.0154242085700922</v>
+      </c>
+      <c r="G35">
+        <v>-0.01253527961903991</v>
+      </c>
+      <c r="H35">
+        <v>-0.03612655941996468</v>
+      </c>
+      <c r="I35">
+        <v>0.03011289430044026</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.00808439516360324</v>
+        <v>0.00942904913175235</v>
       </c>
       <c r="C36">
-        <v>-0.005361869902412769</v>
+        <v>0.01752378972877902</v>
       </c>
       <c r="D36">
-        <v>0.08704683790982146</v>
+        <v>0.07062574240160781</v>
       </c>
       <c r="E36">
-        <v>-0.04213334319390275</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.02766084356134326</v>
+      </c>
+      <c r="F36">
+        <v>0.04728815722948178</v>
+      </c>
+      <c r="G36">
+        <v>-0.01597759904698396</v>
+      </c>
+      <c r="H36">
+        <v>-0.06382468832358104</v>
+      </c>
+      <c r="I36">
+        <v>-0.02694654229320729</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.00552109975755503</v>
+        <v>0.01115344253385781</v>
       </c>
       <c r="C38">
-        <v>-0.006039959621305812</v>
+        <v>0.01689201829218864</v>
       </c>
       <c r="D38">
-        <v>0.08475246232438119</v>
+        <v>0.08504759987572731</v>
       </c>
       <c r="E38">
-        <v>-0.01175803623691298</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003900181225763512</v>
+      </c>
+      <c r="F38">
+        <v>0.001923665475447023</v>
+      </c>
+      <c r="G38">
+        <v>-0.03500760950394412</v>
+      </c>
+      <c r="H38">
+        <v>-0.06031494338458447</v>
+      </c>
+      <c r="I38">
+        <v>-0.01646510452685026</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01817324633797128</v>
+        <v>0.003240603988657846</v>
       </c>
       <c r="C39">
-        <v>-0.05635951867774056</v>
+        <v>0.07370440222705957</v>
       </c>
       <c r="D39">
-        <v>0.1141540831692539</v>
+        <v>0.09768654845564718</v>
       </c>
       <c r="E39">
-        <v>0.01855586323084748</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06028640863034469</v>
+      </c>
+      <c r="F39">
+        <v>-0.003480735868289665</v>
+      </c>
+      <c r="G39">
+        <v>-0.005761785336310247</v>
+      </c>
+      <c r="H39">
+        <v>-0.1037763922492347</v>
+      </c>
+      <c r="I39">
+        <v>0.07299064185852011</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01120045874122667</v>
+        <v>0.009058926417170808</v>
       </c>
       <c r="C40">
-        <v>-0.01526173363037074</v>
+        <v>0.02556824151318711</v>
       </c>
       <c r="D40">
-        <v>0.1205961843547172</v>
+        <v>0.09416767048313363</v>
       </c>
       <c r="E40">
-        <v>0.02023787403362316</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.04926756863765989</v>
+      </c>
+      <c r="F40">
+        <v>-0.02037379622061629</v>
+      </c>
+      <c r="G40">
+        <v>-0.06962364124281747</v>
+      </c>
+      <c r="H40">
+        <v>-0.06490119303984301</v>
+      </c>
+      <c r="I40">
+        <v>-0.07772944956307842</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01173077898320781</v>
+        <v>0.01355322093495122</v>
       </c>
       <c r="C41">
-        <v>-0.004987407076460833</v>
+        <v>0.01494648788068254</v>
       </c>
       <c r="D41">
-        <v>0.04949580345667254</v>
+        <v>0.03996845799296581</v>
       </c>
       <c r="E41">
-        <v>-0.03210170691220792</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.007307059920604017</v>
+      </c>
+      <c r="F41">
+        <v>0.02438215959179605</v>
+      </c>
+      <c r="G41">
+        <v>-0.02151581029877423</v>
+      </c>
+      <c r="H41">
+        <v>-0.04026248632203933</v>
+      </c>
+      <c r="I41">
+        <v>-0.02288640009239529</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.004867243680812341</v>
+        <v>0.007245640466536155</v>
       </c>
       <c r="C43">
-        <v>-0.006278740184697974</v>
+        <v>0.01303246498359431</v>
       </c>
       <c r="D43">
-        <v>0.05950834006771735</v>
+        <v>0.04695188940153733</v>
       </c>
       <c r="E43">
-        <v>-0.02077745638855235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.009219468904101214</v>
+      </c>
+      <c r="F43">
+        <v>0.01937110372131169</v>
+      </c>
+      <c r="G43">
+        <v>-0.02198824173076381</v>
+      </c>
+      <c r="H43">
+        <v>-0.05520843517228013</v>
+      </c>
+      <c r="I43">
+        <v>-0.006071178190862528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0179911896958618</v>
+        <v>0.01077507389758418</v>
       </c>
       <c r="C44">
-        <v>-0.02252687202357035</v>
+        <v>0.04340562168331905</v>
       </c>
       <c r="D44">
-        <v>0.1107617166058033</v>
+        <v>0.1113198352009012</v>
       </c>
       <c r="E44">
-        <v>-0.04616682899820508</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.04378020168386065</v>
+      </c>
+      <c r="F44">
+        <v>0.03581965783883282</v>
+      </c>
+      <c r="G44">
+        <v>-0.03342872877793993</v>
+      </c>
+      <c r="H44">
+        <v>-0.04687667551980481</v>
+      </c>
+      <c r="I44">
+        <v>0.06260033161584742</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006904257127674954</v>
+        <v>-0.001901334101661204</v>
       </c>
       <c r="C46">
-        <v>-0.02770853253934057</v>
+        <v>0.03804335789680782</v>
       </c>
       <c r="D46">
-        <v>0.09087887382120972</v>
+        <v>0.07717539142577005</v>
       </c>
       <c r="E46">
-        <v>-0.01822595085225268</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.04434769416496469</v>
+      </c>
+      <c r="F46">
+        <v>0.03312176575287065</v>
+      </c>
+      <c r="G46">
+        <v>-0.0346124755775077</v>
+      </c>
+      <c r="H46">
+        <v>-0.1284290672388071</v>
+      </c>
+      <c r="I46">
+        <v>0.01217461276857473</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.08582519597442149</v>
+        <v>0.03276615611693975</v>
       </c>
       <c r="C47">
-        <v>-0.1034586885726345</v>
+        <v>0.1266628115238038</v>
       </c>
       <c r="D47">
-        <v>0.05851337712671049</v>
+        <v>0.02623720931993541</v>
       </c>
       <c r="E47">
-        <v>-0.02833669260335342</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.0107448289948319</v>
+      </c>
+      <c r="F47">
+        <v>-0.003086554796471835</v>
+      </c>
+      <c r="G47">
+        <v>0.0271491766385924</v>
+      </c>
+      <c r="H47">
+        <v>-0.06191355234795133</v>
+      </c>
+      <c r="I47">
+        <v>-0.1067682157104736</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.007981120976829754</v>
+        <v>0.009596301292483607</v>
       </c>
       <c r="C48">
-        <v>-0.01568006749566511</v>
+        <v>0.02679941803090815</v>
       </c>
       <c r="D48">
-        <v>0.09359938866683556</v>
+        <v>0.07445389531373248</v>
       </c>
       <c r="E48">
-        <v>-0.05421577929174171</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.02115548724022327</v>
+      </c>
+      <c r="F48">
+        <v>0.05959317937715797</v>
+      </c>
+      <c r="G48">
+        <v>-0.03185826653685737</v>
+      </c>
+      <c r="H48">
+        <v>-0.09958696640665025</v>
+      </c>
+      <c r="I48">
+        <v>-0.0123286728991145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04097421233460233</v>
+        <v>0.01245044715939708</v>
       </c>
       <c r="C50">
-        <v>-0.06006320192516225</v>
+        <v>0.07523681915598042</v>
       </c>
       <c r="D50">
-        <v>0.06806500427094041</v>
+        <v>0.04652977720123203</v>
       </c>
       <c r="E50">
-        <v>-0.008906142804474597</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01218136910084606</v>
+      </c>
+      <c r="F50">
+        <v>0.01075715344763192</v>
+      </c>
+      <c r="G50">
+        <v>-0.02686480125695219</v>
+      </c>
+      <c r="H50">
+        <v>-0.03258688955017928</v>
+      </c>
+      <c r="I50">
+        <v>-0.07801786594366093</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001044931039305909</v>
+        <v>0.0005784780148013729</v>
       </c>
       <c r="C51">
-        <v>-0.003002346825600461</v>
+        <v>0.0147148300031967</v>
       </c>
       <c r="D51">
-        <v>0.05797873497550262</v>
+        <v>0.05927323575129083</v>
       </c>
       <c r="E51">
-        <v>-0.0006794093894956811</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.04561304743583799</v>
+      </c>
+      <c r="F51">
+        <v>0.03592074938944468</v>
+      </c>
+      <c r="G51">
+        <v>-0.02982085576226302</v>
+      </c>
+      <c r="H51">
+        <v>-0.03634810299384129</v>
+      </c>
+      <c r="I51">
+        <v>-0.009211347813067103</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1122088221555738</v>
+        <v>0.05526773955052741</v>
       </c>
       <c r="C53">
-        <v>-0.1196940956259297</v>
+        <v>0.1566852517230982</v>
       </c>
       <c r="D53">
-        <v>0.0195663166230035</v>
+        <v>-0.01383456464260783</v>
       </c>
       <c r="E53">
-        <v>-0.05984084873636492</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02765674608183838</v>
+      </c>
+      <c r="F53">
+        <v>0.04976146678849231</v>
+      </c>
+      <c r="G53">
+        <v>-0.002951875980075107</v>
+      </c>
+      <c r="H53">
+        <v>-0.002082334287411931</v>
+      </c>
+      <c r="I53">
+        <v>-0.04737477050086056</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0153251015552884</v>
+        <v>0.008542836054198678</v>
       </c>
       <c r="C54">
-        <v>-0.02132350457727658</v>
+        <v>0.03840487431366749</v>
       </c>
       <c r="D54">
-        <v>0.09795191136124036</v>
+        <v>0.08029336326636433</v>
       </c>
       <c r="E54">
-        <v>-0.00173280395402619</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01934547846959823</v>
+      </c>
+      <c r="F54">
+        <v>0.0001200694705010304</v>
+      </c>
+      <c r="G54">
+        <v>-0.03800818891814786</v>
+      </c>
+      <c r="H54">
+        <v>-0.08057292482692062</v>
+      </c>
+      <c r="I54">
+        <v>-0.004506628277450317</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09963998508413821</v>
+        <v>0.04202672512934677</v>
       </c>
       <c r="C55">
-        <v>-0.1009133732413431</v>
+        <v>0.1299989682734016</v>
       </c>
       <c r="D55">
-        <v>0.008518294403031486</v>
+        <v>-0.0286338127707411</v>
       </c>
       <c r="E55">
-        <v>-0.01300628364072081</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.004003749536596077</v>
+      </c>
+      <c r="F55">
+        <v>0.01475343216874458</v>
+      </c>
+      <c r="G55">
+        <v>-0.01364092508725161</v>
+      </c>
+      <c r="H55">
+        <v>-0.004805537786682335</v>
+      </c>
+      <c r="I55">
+        <v>-0.06218206859015007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1383167036818281</v>
+        <v>0.05831088494713063</v>
       </c>
       <c r="C56">
-        <v>-0.1355951911210682</v>
+        <v>0.1888524778242347</v>
       </c>
       <c r="D56">
-        <v>0.002708773758096948</v>
+        <v>-0.02494483095899412</v>
       </c>
       <c r="E56">
-        <v>-0.01423168152156644</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.02979109124601434</v>
+      </c>
+      <c r="F56">
+        <v>0.01895975139482196</v>
+      </c>
+      <c r="G56">
+        <v>-0.05895998600543935</v>
+      </c>
+      <c r="H56">
+        <v>0.0119458646507141</v>
+      </c>
+      <c r="I56">
+        <v>-0.0761225584350825</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.005991313060046339</v>
+        <v>0.002713553631805777</v>
       </c>
       <c r="C58">
-        <v>-0.0124321569505777</v>
+        <v>0.04870479858427448</v>
       </c>
       <c r="D58">
-        <v>0.2117261223288161</v>
+        <v>0.2769816025476999</v>
       </c>
       <c r="E58">
-        <v>-0.08298864621020322</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02201249192826475</v>
+      </c>
+      <c r="F58">
+        <v>0.1104660206033693</v>
+      </c>
+      <c r="G58">
+        <v>-0.1092957162579437</v>
+      </c>
+      <c r="H58">
+        <v>0.115751866036391</v>
+      </c>
+      <c r="I58">
+        <v>0.082259725803058</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1725482743399841</v>
+        <v>0.2511303961431465</v>
       </c>
       <c r="C59">
-        <v>0.1559353750203743</v>
+        <v>-0.06471514517485083</v>
       </c>
       <c r="D59">
-        <v>0.04426228491360443</v>
+        <v>0.0588128557261258</v>
       </c>
       <c r="E59">
-        <v>-0.03653563723400467</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.02143172168762437</v>
+      </c>
+      <c r="F59">
+        <v>0.02611541527499133</v>
+      </c>
+      <c r="G59">
+        <v>-0.01221830092950519</v>
+      </c>
+      <c r="H59">
+        <v>0.00367627544280954</v>
+      </c>
+      <c r="I59">
+        <v>-0.07606994479226226</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1934466771498215</v>
+        <v>0.1492874517975508</v>
       </c>
       <c r="C60">
-        <v>-0.09332461081860036</v>
+        <v>0.1724514556796412</v>
       </c>
       <c r="D60">
-        <v>0.1931831039326012</v>
+        <v>0.09054779619852985</v>
       </c>
       <c r="E60">
-        <v>0.1718467675872778</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.1724963979684685</v>
+      </c>
+      <c r="F60">
+        <v>-0.2250786307181924</v>
+      </c>
+      <c r="G60">
+        <v>0.2615977442292923</v>
+      </c>
+      <c r="H60">
+        <v>0.1670016757937415</v>
+      </c>
+      <c r="I60">
+        <v>-0.04846124807207677</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.02856561662306703</v>
+        <v>0.009700519770081932</v>
       </c>
       <c r="C61">
-        <v>-0.05224624084043335</v>
+        <v>0.07097169707634651</v>
       </c>
       <c r="D61">
-        <v>0.1000980230011224</v>
+        <v>0.0776417277639728</v>
       </c>
       <c r="E61">
-        <v>0.008272913932192771</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04135070308962065</v>
+      </c>
+      <c r="F61">
+        <v>-0.01524786139657028</v>
+      </c>
+      <c r="G61">
+        <v>0.009952303769020386</v>
+      </c>
+      <c r="H61">
+        <v>-0.09246162408459592</v>
+      </c>
+      <c r="I61">
+        <v>0.02944884740788422</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.008766895236353661</v>
+        <v>0.006461692458506402</v>
       </c>
       <c r="C63">
-        <v>-0.02574767234939027</v>
+        <v>0.03389582277763983</v>
       </c>
       <c r="D63">
-        <v>0.09365119634518443</v>
+        <v>0.06430382036576511</v>
       </c>
       <c r="E63">
-        <v>-0.01317685429541613</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.05786001368153967</v>
+      </c>
+      <c r="F63">
+        <v>0.02721338916034494</v>
+      </c>
+      <c r="G63">
+        <v>-0.02115400153591664</v>
+      </c>
+      <c r="H63">
+        <v>-0.06728070560804503</v>
+      </c>
+      <c r="I63">
+        <v>0.01291145760942159</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06061395171466639</v>
+        <v>0.01849832311258977</v>
       </c>
       <c r="C64">
-        <v>-0.07932742937081655</v>
+        <v>0.1055350290675851</v>
       </c>
       <c r="D64">
-        <v>0.03772144292326125</v>
+        <v>0.02510632742286615</v>
       </c>
       <c r="E64">
-        <v>-0.01447967356346618</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02939626244809582</v>
+      </c>
+      <c r="F64">
+        <v>0.01813933452288363</v>
+      </c>
+      <c r="G64">
+        <v>0.03784870856318502</v>
+      </c>
+      <c r="H64">
+        <v>-0.1123931640822212</v>
+      </c>
+      <c r="I64">
+        <v>0.06792936777805825</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02627561762579084</v>
+        <v>0.01913605858542513</v>
       </c>
       <c r="C65">
-        <v>-0.01599325440317378</v>
+        <v>0.04144516259411771</v>
       </c>
       <c r="D65">
-        <v>0.1185095990860258</v>
+        <v>0.1161587499029288</v>
       </c>
       <c r="E65">
-        <v>-0.003375315286673716</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.04607935432755987</v>
+      </c>
+      <c r="F65">
+        <v>-0.008794038744360985</v>
+      </c>
+      <c r="G65">
+        <v>0.02270302297881944</v>
+      </c>
+      <c r="H65">
+        <v>-0.03504652729456793</v>
+      </c>
+      <c r="I65">
+        <v>0.03905061627051307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02197584598664509</v>
+        <v>0.0003388737290105489</v>
       </c>
       <c r="C66">
-        <v>-0.0637948716452202</v>
+        <v>0.0901289804675864</v>
       </c>
       <c r="D66">
-        <v>0.1202418252159255</v>
+        <v>0.1244563515222111</v>
       </c>
       <c r="E66">
-        <v>0.02035123137051972</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.04578663419167802</v>
+      </c>
+      <c r="F66">
+        <v>-0.009836065638492004</v>
+      </c>
+      <c r="G66">
+        <v>-0.01890983507289622</v>
+      </c>
+      <c r="H66">
+        <v>-0.06079225724999931</v>
+      </c>
+      <c r="I66">
+        <v>0.07019380285183606</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.0256178092839561</v>
+        <v>0.02151629364912573</v>
       </c>
       <c r="C67">
-        <v>-0.01829846010389321</v>
+        <v>0.02926216830068629</v>
       </c>
       <c r="D67">
-        <v>0.03939262840029622</v>
+        <v>0.03512684930134818</v>
       </c>
       <c r="E67">
-        <v>0.01463760650142332</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.00851209268118756</v>
+      </c>
+      <c r="F67">
+        <v>-0.02718680522993275</v>
+      </c>
+      <c r="G67">
+        <v>-0.02025164352760549</v>
+      </c>
+      <c r="H67">
+        <v>-0.06386535640477091</v>
+      </c>
+      <c r="I67">
+        <v>-0.009528051548822022</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1974661497709907</v>
+        <v>0.2736728963351451</v>
       </c>
       <c r="C68">
-        <v>0.1665645363314918</v>
+        <v>-0.06660749588298448</v>
       </c>
       <c r="D68">
-        <v>0.03475317474570009</v>
+        <v>0.03445463823635153</v>
       </c>
       <c r="E68">
-        <v>-0.008793453210039905</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.001147599418233842</v>
+      </c>
+      <c r="F68">
+        <v>0.02509697202439803</v>
+      </c>
+      <c r="G68">
+        <v>-0.05422072807935484</v>
+      </c>
+      <c r="H68">
+        <v>0.0641583744964196</v>
+      </c>
+      <c r="I68">
+        <v>-0.09173092249815981</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06354381088341819</v>
+        <v>0.01817607522003478</v>
       </c>
       <c r="C69">
-        <v>-0.1137260838341102</v>
+        <v>0.1180143154300204</v>
       </c>
       <c r="D69">
-        <v>0.08286391963682152</v>
+        <v>0.03164203211613565</v>
       </c>
       <c r="E69">
-        <v>-0.01471037597931056</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.008172220196930358</v>
+      </c>
+      <c r="F69">
+        <v>-0.007474979183591956</v>
+      </c>
+      <c r="G69">
+        <v>0.01347930962410893</v>
+      </c>
+      <c r="H69">
+        <v>-0.0464272745791984</v>
+      </c>
+      <c r="I69">
+        <v>-0.07204895462150036</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2036494098694846</v>
+        <v>0.2743184361033368</v>
       </c>
       <c r="C71">
-        <v>0.1894896349935052</v>
+        <v>-0.08232978533324507</v>
       </c>
       <c r="D71">
-        <v>0.02341457286731377</v>
+        <v>0.01898062237142802</v>
       </c>
       <c r="E71">
-        <v>-0.01556443697168302</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.0005215213075653744</v>
+      </c>
+      <c r="F71">
+        <v>0.02076858599500206</v>
+      </c>
+      <c r="G71">
+        <v>-0.03963530646084089</v>
+      </c>
+      <c r="H71">
+        <v>-0.01257905945210362</v>
+      </c>
+      <c r="I71">
+        <v>-0.1250695843945544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1080732543012822</v>
+        <v>0.05590954882695946</v>
       </c>
       <c r="C72">
-        <v>-0.06916509900603761</v>
+        <v>0.1232130345996079</v>
       </c>
       <c r="D72">
-        <v>0.1047034221448271</v>
+        <v>0.0606471439957289</v>
       </c>
       <c r="E72">
-        <v>0.05025622713651245</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.07715157624229192</v>
+      </c>
+      <c r="F72">
+        <v>-0.03034132247567223</v>
+      </c>
+      <c r="G72">
+        <v>0.02713748256817188</v>
+      </c>
+      <c r="H72">
+        <v>-0.051245674962573</v>
+      </c>
+      <c r="I72">
+        <v>0.0788834500537825</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1785147066000834</v>
+        <v>0.1349235096059969</v>
       </c>
       <c r="C73">
-        <v>-0.05751476208841069</v>
+        <v>0.1438539525642129</v>
       </c>
       <c r="D73">
-        <v>0.2685365759730371</v>
+        <v>0.09588516694657491</v>
       </c>
       <c r="E73">
-        <v>0.26417390447763</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.3011864386170683</v>
+      </c>
+      <c r="F73">
+        <v>-0.3312184303030973</v>
+      </c>
+      <c r="G73">
+        <v>0.4352075186310733</v>
+      </c>
+      <c r="H73">
+        <v>0.0696164106830863</v>
+      </c>
+      <c r="I73">
+        <v>0.01219529330909518</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1134629195005993</v>
+        <v>0.05044659597090846</v>
       </c>
       <c r="C74">
-        <v>-0.1119499689594671</v>
+        <v>0.1489897541210095</v>
       </c>
       <c r="D74">
-        <v>-0.01803532531397318</v>
+        <v>-0.03856874928468465</v>
       </c>
       <c r="E74">
-        <v>-0.04164054109614782</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.01052898748269766</v>
+      </c>
+      <c r="F74">
+        <v>0.03643276323420555</v>
+      </c>
+      <c r="G74">
+        <v>0.003371616427145922</v>
+      </c>
+      <c r="H74">
+        <v>0.01651967759743285</v>
+      </c>
+      <c r="I74">
+        <v>-0.08723292286853987</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2428304634978512</v>
+        <v>0.111710319143473</v>
       </c>
       <c r="C75">
-        <v>-0.1895123679265634</v>
+        <v>0.271278859117629</v>
       </c>
       <c r="D75">
-        <v>-0.1088123989776763</v>
+        <v>-0.1292815616704507</v>
       </c>
       <c r="E75">
-        <v>0.01846881167590267</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.09012359058155341</v>
+      </c>
+      <c r="F75">
+        <v>-0.02464832089466067</v>
+      </c>
+      <c r="G75">
+        <v>-0.1044129507065322</v>
+      </c>
+      <c r="H75">
+        <v>0.01038311417342857</v>
+      </c>
+      <c r="I75">
+        <v>-0.05955103241594618</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1457810070648329</v>
+        <v>0.06402831500548385</v>
       </c>
       <c r="C76">
-        <v>-0.1334794157999794</v>
+        <v>0.1842720715968747</v>
       </c>
       <c r="D76">
-        <v>0.018010716706124</v>
+        <v>-0.03219315792900353</v>
       </c>
       <c r="E76">
-        <v>-0.01113611400728057</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.02130811927199332</v>
+      </c>
+      <c r="F76">
+        <v>0.005497185014013146</v>
+      </c>
+      <c r="G76">
+        <v>-0.04644626127444577</v>
+      </c>
+      <c r="H76">
+        <v>-0.02253708953495576</v>
+      </c>
+      <c r="I76">
+        <v>-0.0677156883044881</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02069164688924162</v>
+        <v>0.0003225411108322748</v>
       </c>
       <c r="C77">
-        <v>-0.06908450844647746</v>
+        <v>0.1015958845563396</v>
       </c>
       <c r="D77">
-        <v>0.02606975933137123</v>
+        <v>0.340831916758389</v>
       </c>
       <c r="E77">
-        <v>-0.2286033707209443</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.8291601233881103</v>
+      </c>
+      <c r="F77">
+        <v>-0.2396503808085709</v>
+      </c>
+      <c r="G77">
+        <v>0.2342821902860443</v>
+      </c>
+      <c r="H77">
+        <v>0.1014640568423879</v>
+      </c>
+      <c r="I77">
+        <v>-0.03319284396296225</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02865543157531576</v>
+        <v>0.01277849576492388</v>
       </c>
       <c r="C78">
-        <v>-0.06489826419751483</v>
+        <v>0.08518338722205959</v>
       </c>
       <c r="D78">
-        <v>0.1502313501303155</v>
+        <v>0.1228670461972922</v>
       </c>
       <c r="E78">
-        <v>-0.04682131305943275</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07022953709909496</v>
+      </c>
+      <c r="F78">
+        <v>0.05021265055543936</v>
+      </c>
+      <c r="G78">
+        <v>-0.03871231355385912</v>
+      </c>
+      <c r="H78">
+        <v>-0.01423770901627538</v>
+      </c>
+      <c r="I78">
+        <v>-0.1115047317301905</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.09943569765162369</v>
+        <v>0.03367070697493534</v>
       </c>
       <c r="C79">
-        <v>-0.1661710452595116</v>
+        <v>0.1878709449970849</v>
       </c>
       <c r="D79">
-        <v>-0.09264699463887315</v>
+        <v>-0.06705096523831085</v>
       </c>
       <c r="E79">
-        <v>-0.796812384109769</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>-0.05847731591059855</v>
+      </c>
+      <c r="F79">
+        <v>0.7652262743348321</v>
+      </c>
+      <c r="G79">
+        <v>0.4899755586021319</v>
+      </c>
+      <c r="H79">
+        <v>0.1904219132575184</v>
+      </c>
+      <c r="I79">
+        <v>0.1119996296765598</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.007643011759792169</v>
+        <v>0.005050937516394407</v>
       </c>
       <c r="C80">
-        <v>-0.04530720073671403</v>
+        <v>0.04526817277497864</v>
       </c>
       <c r="D80">
-        <v>0.04929772867031575</v>
+        <v>0.04126056192873098</v>
       </c>
       <c r="E80">
-        <v>0.007183904204107156</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04674089669085299</v>
+      </c>
+      <c r="F80">
+        <v>0.006896562406278568</v>
+      </c>
+      <c r="G80">
+        <v>-0.0233587378856511</v>
+      </c>
+      <c r="H80">
+        <v>-0.0200915879841184</v>
+      </c>
+      <c r="I80">
+        <v>-0.07654627683371082</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1232194069460145</v>
+        <v>0.04395564227575959</v>
       </c>
       <c r="C81">
-        <v>-0.1286757902928095</v>
+        <v>0.1664281590646404</v>
       </c>
       <c r="D81">
-        <v>-0.07391351537769421</v>
+        <v>-0.07837899006670723</v>
       </c>
       <c r="E81">
-        <v>-0.06597876792961058</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.05651402257974494</v>
+      </c>
+      <c r="F81">
+        <v>0.06394112329781711</v>
+      </c>
+      <c r="G81">
+        <v>-0.06392442704575794</v>
+      </c>
+      <c r="H81">
+        <v>-0.05560109916961423</v>
+      </c>
+      <c r="I81">
+        <v>-0.09851162460425801</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2632995512954104</v>
+        <v>0.09494220033973093</v>
       </c>
       <c r="C82">
-        <v>-0.2865973564790505</v>
+        <v>0.3304177755553354</v>
       </c>
       <c r="D82">
-        <v>-0.2041054642131244</v>
+        <v>-0.2257756395765826</v>
       </c>
       <c r="E82">
-        <v>0.1333585326080206</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.06102692161731251</v>
+      </c>
+      <c r="F82">
+        <v>-0.1036580387436165</v>
+      </c>
+      <c r="G82">
+        <v>-0.1171057103674154</v>
+      </c>
+      <c r="H82">
+        <v>-0.08316798412098052</v>
+      </c>
+      <c r="I82">
+        <v>-0.04581351410447541</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.004877683175264308</v>
+        <v>-0.009226072148194209</v>
       </c>
       <c r="C83">
-        <v>-0.0523030770056029</v>
+        <v>0.03016453044750099</v>
       </c>
       <c r="D83">
-        <v>0.01130976353385505</v>
+        <v>0.03928880433145725</v>
       </c>
       <c r="E83">
-        <v>-0.05678970408394292</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.06517238621750542</v>
+      </c>
+      <c r="F83">
+        <v>0.0736393728153847</v>
+      </c>
+      <c r="G83">
+        <v>-0.0857759334559967</v>
+      </c>
+      <c r="H83">
+        <v>-0.03403462729057678</v>
+      </c>
+      <c r="I83">
+        <v>-0.5678183209881305</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0.0006860736012483655</v>
+        <v>-0.003300399881471426</v>
       </c>
       <c r="C84">
-        <v>0.001693103493871998</v>
+        <v>0.01819777448676046</v>
       </c>
       <c r="D84">
-        <v>0.004546835797209658</v>
+        <v>0.04643475635469854</v>
       </c>
       <c r="E84">
-        <v>-0.0004675640447811412</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.0009388628961333035</v>
+      </c>
+      <c r="F84">
+        <v>0.03014267707910411</v>
+      </c>
+      <c r="G84">
+        <v>-0.05218279042534236</v>
+      </c>
+      <c r="H84">
+        <v>-0.005589975557785527</v>
+      </c>
+      <c r="I84">
+        <v>0.06179329901678669</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1473841268724579</v>
+        <v>0.05904681706596256</v>
       </c>
       <c r="C85">
-        <v>-0.1326530771298286</v>
+        <v>0.184886030596302</v>
       </c>
       <c r="D85">
-        <v>-0.0385605522677659</v>
+        <v>-0.08778373714193853</v>
       </c>
       <c r="E85">
-        <v>-0.02781195754038184</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.000966681055090913</v>
+      </c>
+      <c r="F85">
+        <v>0.07331426963757917</v>
+      </c>
+      <c r="G85">
+        <v>-0.01990367265150199</v>
+      </c>
+      <c r="H85">
+        <v>0.01156242580101302</v>
+      </c>
+      <c r="I85">
+        <v>-0.05661657977689225</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01290391957636595</v>
+        <v>0.009175161607082961</v>
       </c>
       <c r="C86">
-        <v>-0.01265545082972834</v>
+        <v>0.03086301921458938</v>
       </c>
       <c r="D86">
-        <v>0.07541057664902326</v>
+        <v>0.1029476901596079</v>
       </c>
       <c r="E86">
-        <v>-0.05090511754343084</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.01936979420912445</v>
+      </c>
+      <c r="F86">
+        <v>0.0005197402720892665</v>
+      </c>
+      <c r="G86">
+        <v>0.005678691639404365</v>
+      </c>
+      <c r="H86">
+        <v>-0.0252633379716515</v>
+      </c>
+      <c r="I86">
+        <v>-0.07285204162847289</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01984508177751029</v>
+        <v>0.00974024643631477</v>
       </c>
       <c r="C87">
-        <v>-0.02333420795506898</v>
+        <v>0.05523471333199311</v>
       </c>
       <c r="D87">
-        <v>0.1318157686712724</v>
+        <v>0.1473256780917784</v>
       </c>
       <c r="E87">
-        <v>-0.0531550965300745</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.01602453130372712</v>
+      </c>
+      <c r="F87">
+        <v>0.04846502676503156</v>
+      </c>
+      <c r="G87">
+        <v>-0.05947800150153591</v>
+      </c>
+      <c r="H87">
+        <v>-0.02335568645367251</v>
+      </c>
+      <c r="I87">
+        <v>0.005992081328295065</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05820596383037224</v>
+        <v>0.03225025660728471</v>
       </c>
       <c r="C88">
-        <v>-0.04571181021490813</v>
+        <v>0.06885021415778265</v>
       </c>
       <c r="D88">
-        <v>0.02765466412709159</v>
+        <v>0.005679142945154879</v>
       </c>
       <c r="E88">
-        <v>-0.02948178886067612</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02398463491704957</v>
+      </c>
+      <c r="F88">
+        <v>0.01687950692304793</v>
+      </c>
+      <c r="G88">
+        <v>0.002021615298309421</v>
+      </c>
+      <c r="H88">
+        <v>-0.02536692794974097</v>
+      </c>
+      <c r="I88">
+        <v>-0.01344809928242857</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3027682531672016</v>
+        <v>0.4099288318281646</v>
       </c>
       <c r="C89">
-        <v>0.3401252631538489</v>
+        <v>-0.1570904454010994</v>
       </c>
       <c r="D89">
-        <v>0.01327721912271474</v>
+        <v>0.0356813529404709</v>
       </c>
       <c r="E89">
-        <v>-0.09296567765400894</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.04786710800010768</v>
+      </c>
+      <c r="F89">
+        <v>0.07029888232033786</v>
+      </c>
+      <c r="G89">
+        <v>-0.03592725605624458</v>
+      </c>
+      <c r="H89">
+        <v>-0.1116719995631939</v>
+      </c>
+      <c r="I89">
+        <v>0.2037266557891657</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2440893155194838</v>
+        <v>0.3184225383066278</v>
       </c>
       <c r="C90">
-        <v>0.2528790375330053</v>
+        <v>-0.1078478495469666</v>
       </c>
       <c r="D90">
-        <v>0.03624146907029348</v>
+        <v>0.03330623163884781</v>
       </c>
       <c r="E90">
-        <v>0.005626069288313083</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.007475632175186921</v>
+      </c>
+      <c r="F90">
+        <v>-0.006578908394138697</v>
+      </c>
+      <c r="G90">
+        <v>-0.06605263108800701</v>
+      </c>
+      <c r="H90">
+        <v>0.02844235295642546</v>
+      </c>
+      <c r="I90">
+        <v>-0.075608513499763</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1628719974235643</v>
+        <v>0.06957994620958274</v>
       </c>
       <c r="C91">
-        <v>-0.1806271478336747</v>
+        <v>0.2126934565633695</v>
       </c>
       <c r="D91">
-        <v>-0.09650465128766297</v>
+        <v>-0.1032460615585757</v>
       </c>
       <c r="E91">
-        <v>-0.09528507698772429</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06393850547306629</v>
+      </c>
+      <c r="F91">
+        <v>0.0722143491999369</v>
+      </c>
+      <c r="G91">
+        <v>-0.005724333496364072</v>
+      </c>
+      <c r="H91">
+        <v>-0.0002960713983975689</v>
+      </c>
+      <c r="I91">
+        <v>-0.09696708171452602</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2311815360519273</v>
+        <v>0.3386197044975705</v>
       </c>
       <c r="C92">
-        <v>0.2712140082170594</v>
+        <v>-0.1408539196151393</v>
       </c>
       <c r="D92">
-        <v>-0.05623637193866587</v>
+        <v>-0.0009512249379070425</v>
       </c>
       <c r="E92">
-        <v>-0.05319541434556057</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.06764451692185747</v>
+      </c>
+      <c r="F92">
+        <v>0.02703935956166433</v>
+      </c>
+      <c r="G92">
+        <v>-0.02892690067196399</v>
+      </c>
+      <c r="H92">
+        <v>-0.01964205446935886</v>
+      </c>
+      <c r="I92">
+        <v>0.2523508193798621</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2692026713095418</v>
+        <v>0.3358081913349089</v>
       </c>
       <c r="C93">
-        <v>0.2642918125366808</v>
+        <v>-0.1131828500075368</v>
       </c>
       <c r="D93">
-        <v>0.01562900334173808</v>
+        <v>-0.01544366275875305</v>
       </c>
       <c r="E93">
-        <v>-0.003244928721388327</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.02610402732048649</v>
+      </c>
+      <c r="F93">
+        <v>0.006598164686135046</v>
+      </c>
+      <c r="G93">
+        <v>0.01979355380274946</v>
+      </c>
+      <c r="H93">
+        <v>-0.002059119591005562</v>
+      </c>
+      <c r="I93">
+        <v>-0.0495676824054814</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3076261553036206</v>
+        <v>0.1343423409946766</v>
       </c>
       <c r="C94">
-        <v>-0.2597174323762851</v>
+        <v>0.3622461955082252</v>
       </c>
       <c r="D94">
-        <v>-0.3557078533267096</v>
+        <v>-0.3392004346195083</v>
       </c>
       <c r="E94">
-        <v>0.2025551949497683</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.06914226087245437</v>
+      </c>
+      <c r="F94">
+        <v>-0.09083154328392311</v>
+      </c>
+      <c r="G94">
+        <v>-0.2922295738585937</v>
+      </c>
+      <c r="H94">
+        <v>0.1079514801596494</v>
+      </c>
+      <c r="I94">
+        <v>0.3157595852949021</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.01617165802831525</v>
+        <v>0.01835787364769266</v>
       </c>
       <c r="C95">
-        <v>-0.03783884009181136</v>
+        <v>0.06315675189119635</v>
       </c>
       <c r="D95">
-        <v>0.02805758832844307</v>
+        <v>0.1121055937759185</v>
       </c>
       <c r="E95">
-        <v>-0.08638676832873886</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.1507150739186478</v>
+      </c>
+      <c r="F95">
+        <v>-0.02116655856976545</v>
+      </c>
+      <c r="G95">
+        <v>0.02267900114243951</v>
+      </c>
+      <c r="H95">
+        <v>-0.4153238954645505</v>
+      </c>
+      <c r="I95">
+        <v>0.3918454311579294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>0.001042214480902665</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0004530767581154953</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>0.0005319237456623737</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.00327577100851115</v>
+      </c>
+      <c r="F97">
+        <v>-9.932371778715798e-05</v>
+      </c>
+      <c r="G97">
+        <v>-0.0004629784116368591</v>
+      </c>
+      <c r="H97">
+        <v>-0.003026377217719669</v>
+      </c>
+      <c r="I97">
+        <v>0.002755566905237955</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1507700339793063</v>
+        <v>0.1105702602207678</v>
       </c>
       <c r="C98">
-        <v>-0.07606369508736864</v>
+        <v>0.1469778948545384</v>
       </c>
       <c r="D98">
-        <v>0.1501628641908686</v>
+        <v>0.06137596370855129</v>
       </c>
       <c r="E98">
-        <v>0.1983587252529926</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.2064604296296436</v>
+      </c>
+      <c r="F98">
+        <v>-0.2444947995420491</v>
+      </c>
+      <c r="G98">
+        <v>0.2983007104410083</v>
+      </c>
+      <c r="H98">
+        <v>0.1182979857779524</v>
+      </c>
+      <c r="I98">
+        <v>0.002459533112641358</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.0004082317208677179</v>
+        <v>-0.002894355130269398</v>
       </c>
       <c r="C101">
-        <v>-0.02035593927584846</v>
+        <v>0.02943918068818297</v>
       </c>
       <c r="D101">
-        <v>0.0976695859534826</v>
+        <v>0.09431108895018576</v>
       </c>
       <c r="E101">
-        <v>-0.01510664670221428</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.05591162931902164</v>
+      </c>
+      <c r="F101">
+        <v>0.03798993571818741</v>
+      </c>
+      <c r="G101">
+        <v>-0.02560567175869478</v>
+      </c>
+      <c r="H101">
+        <v>-0.1274048034474493</v>
+      </c>
+      <c r="I101">
+        <v>-0.0006523220753978973</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1125718864147645</v>
+        <v>0.03159233549290339</v>
       </c>
       <c r="C102">
-        <v>-0.1522230028313143</v>
+        <v>0.1529048789605192</v>
       </c>
       <c r="D102">
-        <v>-0.06725513179934826</v>
+        <v>-0.09118654521665555</v>
       </c>
       <c r="E102">
-        <v>0.04775196466080232</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03532796265537642</v>
+      </c>
+      <c r="F102">
+        <v>-0.05923032602832308</v>
+      </c>
+      <c r="G102">
+        <v>-0.009643002766244095</v>
+      </c>
+      <c r="H102">
+        <v>-0.05528944463163492</v>
+      </c>
+      <c r="I102">
+        <v>-0.02880533495598798</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
